--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H2">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N2">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O2">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P2">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q2">
-        <v>1.660636090836889</v>
+        <v>1.570786531016667</v>
       </c>
       <c r="R2">
-        <v>14.945724817532</v>
+        <v>14.13707877915</v>
       </c>
       <c r="S2">
-        <v>0.003197305447631655</v>
+        <v>0.003049846033487511</v>
       </c>
       <c r="T2">
-        <v>0.003197305447631655</v>
+        <v>0.003049846033487511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H3">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>20.878373</v>
       </c>
       <c r="O3">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P3">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q3">
-        <v>366.1799218638255</v>
+        <v>318.4798941290802</v>
       </c>
       <c r="R3">
-        <v>3295.619296774429</v>
+        <v>2866.319047161722</v>
       </c>
       <c r="S3">
-        <v>0.7050244574646789</v>
+        <v>0.6183619624153701</v>
       </c>
       <c r="T3">
-        <v>0.7050244574646788</v>
+        <v>0.6183619624153702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H4">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N4">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O4">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P4">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q4">
-        <v>30.38206022786722</v>
+        <v>26.62705497955644</v>
       </c>
       <c r="R4">
-        <v>273.438542050805</v>
+        <v>239.643494816008</v>
       </c>
       <c r="S4">
-        <v>0.05849609508840566</v>
+        <v>0.05169920699555097</v>
       </c>
       <c r="T4">
-        <v>0.05849609508840566</v>
+        <v>0.05169920699555098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H5">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I5">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J5">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N5">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O5">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P5">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q5">
-        <v>0.2255128517593334</v>
+        <v>1.690820706424</v>
       </c>
       <c r="R5">
-        <v>2.029615665834</v>
+        <v>15.217386357816</v>
       </c>
       <c r="S5">
-        <v>0.0004341911352039185</v>
+        <v>0.00328290491610478</v>
       </c>
       <c r="T5">
-        <v>0.0004341911352039184</v>
+        <v>0.00328290491610478</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>28.187806</v>
       </c>
       <c r="I6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N6">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O6">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P6">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q6">
-        <v>0.2965482470337778</v>
+        <v>0.3225154803166667</v>
       </c>
       <c r="R6">
-        <v>2.668934223304</v>
+        <v>2.90263932285</v>
       </c>
       <c r="S6">
-        <v>0.0005709591228075057</v>
+        <v>0.0006261974742968231</v>
       </c>
       <c r="T6">
-        <v>0.0005709591228075056</v>
+        <v>0.0006261974742968233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>28.187806</v>
       </c>
       <c r="I7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>20.878373</v>
       </c>
       <c r="O7">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P7">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q7">
         <v>65.39061419107088</v>
@@ -883,10 +883,10 @@
         <v>588.5155277196379</v>
       </c>
       <c r="S7">
-        <v>0.1258998091940339</v>
+        <v>0.1269627039575332</v>
       </c>
       <c r="T7">
-        <v>0.1258998091940339</v>
+        <v>0.1269627039575333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>28.187806</v>
       </c>
       <c r="I8">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J8">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N8">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O8">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P8">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q8">
-        <v>5.425479279634444</v>
+        <v>5.467093877225778</v>
       </c>
       <c r="R8">
-        <v>48.82931351671</v>
+        <v>49.203844895032</v>
       </c>
       <c r="S8">
-        <v>0.01044594571472054</v>
+        <v>0.0106149335042802</v>
       </c>
       <c r="T8">
-        <v>0.01044594571472054</v>
+        <v>0.01061493350428021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>28.187806</v>
       </c>
       <c r="I9">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J9">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N9">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O9">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P9">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q9">
-        <v>0.04027097883866666</v>
+        <v>0.347161018696</v>
       </c>
       <c r="R9">
-        <v>0.362438809548</v>
+        <v>3.124449168264</v>
       </c>
       <c r="S9">
-        <v>7.753572304781069E-05</v>
+        <v>0.0006740493599510277</v>
       </c>
       <c r="T9">
-        <v>7.753572304781068E-05</v>
+        <v>0.0006740493599510277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H10">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N10">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O10">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P10">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q10">
-        <v>0.20491653306</v>
+        <v>0.4221119849833334</v>
       </c>
       <c r="R10">
-        <v>1.84424879754</v>
+        <v>3.79900786485</v>
       </c>
       <c r="S10">
-        <v>0.0003945360160951021</v>
+        <v>0.0008195744855640728</v>
       </c>
       <c r="T10">
-        <v>0.000394536016095102</v>
+        <v>0.0008195744855640728</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H11">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I11">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J11">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>20.878373</v>
       </c>
       <c r="O11">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P11">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q11">
-        <v>45.185288022195</v>
+        <v>85.5839909711331</v>
       </c>
       <c r="R11">
-        <v>406.6675921997551</v>
+        <v>770.2559187401981</v>
       </c>
       <c r="S11">
-        <v>0.08699748749490456</v>
+        <v>0.166170253079775</v>
       </c>
       <c r="T11">
-        <v>0.08699748749490456</v>
+        <v>0.166170253079775</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H12">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I12">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J12">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N12">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O12">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P12">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q12">
-        <v>3.749037181275</v>
+        <v>7.155395599430222</v>
       </c>
       <c r="R12">
-        <v>33.74133463147501</v>
+        <v>64.39856039487201</v>
       </c>
       <c r="S12">
-        <v>0.007218208172883526</v>
+        <v>0.01389294754955134</v>
       </c>
       <c r="T12">
-        <v>0.007218208172883526</v>
+        <v>0.01389294754955134</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H13">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I13">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J13">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N13">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O13">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P13">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q13">
-        <v>0.02782747647</v>
+        <v>0.454368350216</v>
       </c>
       <c r="R13">
-        <v>0.25044728823</v>
+        <v>4.089315151944001</v>
       </c>
       <c r="S13">
-        <v>5.357762763456151E-05</v>
+        <v>0.0008822035860923923</v>
       </c>
       <c r="T13">
-        <v>5.35776276345615E-05</v>
+        <v>0.0008822035860923921</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H14">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I14">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J14">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N14">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O14">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P14">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q14">
-        <v>0.002575730933777778</v>
+        <v>0.006881464558333333</v>
       </c>
       <c r="R14">
-        <v>0.023181578404</v>
+        <v>0.06193318102499999</v>
       </c>
       <c r="S14">
-        <v>4.95918316580171E-06</v>
+        <v>1.336108183601118E-05</v>
       </c>
       <c r="T14">
-        <v>4.959183165801708E-06</v>
+        <v>1.336108183601118E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H15">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I15">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J15">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>20.878373</v>
       </c>
       <c r="O15">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P15">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q15">
-        <v>0.5679636599958888</v>
+        <v>1.395229753194111</v>
       </c>
       <c r="R15">
-        <v>5.111672939962999</v>
+        <v>12.557067778747</v>
       </c>
       <c r="S15">
-        <v>0.001093528747316642</v>
+        <v>0.002708984221954516</v>
       </c>
       <c r="T15">
-        <v>0.001093528747316642</v>
+        <v>0.002708984221954516</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H16">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I16">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J16">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N16">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O16">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P16">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q16">
-        <v>0.04712411875944444</v>
+        <v>0.1166505642342222</v>
       </c>
       <c r="R16">
-        <v>0.4241170688349999</v>
+        <v>1.049855078108</v>
       </c>
       <c r="S16">
-        <v>9.073041496314915E-05</v>
+        <v>0.0002264892482898734</v>
       </c>
       <c r="T16">
-        <v>9.073041496314912E-05</v>
+        <v>0.0002264892482898734</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H17">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I17">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J17">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N17">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O17">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P17">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q17">
-        <v>0.0003497818886666666</v>
+        <v>0.007407322724</v>
       </c>
       <c r="R17">
-        <v>0.003148036997999999</v>
+        <v>0.06666590451599999</v>
       </c>
       <c r="S17">
-        <v>6.734525067157954E-07</v>
+        <v>1.438209036203762E-05</v>
       </c>
       <c r="T17">
-        <v>6.734525067157952E-07</v>
+        <v>1.438209036203762E-05</v>
       </c>
     </row>
   </sheetData>
